--- a/public/sampleExcel/stock_issues_sample.xlsx
+++ b/public/sampleExcel/stock_issues_sample.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vun.thy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vun.thy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48665E0A-7828-4898-AA57-CE4243C81963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD63336-091B-42CE-A03C-E6820AFAC7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1304</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>reference_no</t>
   </si>
@@ -78,39 +81,6 @@
   </si>
   <si>
     <t>item_remarks</t>
-  </si>
-  <si>
-    <t>ISS-0001</t>
-  </si>
-  <si>
-    <t>Issue</t>
-  </si>
-  <si>
-    <t>ACC-001</t>
-  </si>
-  <si>
-    <t>Vun Thy</t>
-  </si>
-  <si>
-    <t>Urgent issue</t>
-  </si>
-  <si>
-    <t>Laptop issue</t>
-  </si>
-  <si>
-    <t>PROD TK WH</t>
-  </si>
-  <si>
-    <t>PRO-ELT-0001-03</t>
-  </si>
-  <si>
-    <t>TK</t>
-  </si>
-  <si>
-    <t>PROD</t>
-  </si>
-  <si>
-    <t>AISAD</t>
   </si>
 </sst>
 </file>
@@ -429,156 +399,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="101" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45974</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2">
-        <v>10.123456789</v>
-      </c>
-      <c r="K2">
-        <v>12.0000000001</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45974</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3">
-        <v>10.123456789</v>
-      </c>
-      <c r="K3">
-        <v>12.0000000001</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:N1304" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/sampleExcel/stock_issues_sample.xlsx
+++ b/public/sampleExcel/stock_issues_sample.xlsx
@@ -5,19 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vun.thy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vun.thy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD63336-091B-42CE-A03C-E6820AFAC7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48665E0A-7828-4898-AA57-CE4243C81963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1304</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>reference_no</t>
   </si>
@@ -81,6 +78,39 @@
   </si>
   <si>
     <t>item_remarks</t>
+  </si>
+  <si>
+    <t>ISS-0001</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>ACC-001</t>
+  </si>
+  <si>
+    <t>Vun Thy</t>
+  </si>
+  <si>
+    <t>Urgent issue</t>
+  </si>
+  <si>
+    <t>Laptop issue</t>
+  </si>
+  <si>
+    <t>PROD TK WH</t>
+  </si>
+  <si>
+    <t>PRO-ELT-0001-03</t>
+  </si>
+  <si>
+    <t>TK</t>
+  </si>
+  <si>
+    <t>PROD</t>
+  </si>
+  <si>
+    <t>AISAD</t>
   </si>
 </sst>
 </file>
@@ -399,76 +429,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="101" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45974</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2">
+        <v>10.123456789</v>
+      </c>
+      <c r="K2">
+        <v>12.0000000001</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45974</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <v>10.123456789</v>
+      </c>
+      <c r="K3">
+        <v>12.0000000001</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N1304" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/sampleExcel/stock_issues_sample.xlsx
+++ b/public/sampleExcel/stock_issues_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vun.thy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\prodsystem\public\sampleExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48665E0A-7828-4898-AA57-CE4243C81963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB585B8-C0DC-4ED8-AB9D-5B806AB618AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>reference_no</t>
   </si>
@@ -78,39 +78,6 @@
   </si>
   <si>
     <t>item_remarks</t>
-  </si>
-  <si>
-    <t>ISS-0001</t>
-  </si>
-  <si>
-    <t>Issue</t>
-  </si>
-  <si>
-    <t>ACC-001</t>
-  </si>
-  <si>
-    <t>Vun Thy</t>
-  </si>
-  <si>
-    <t>Urgent issue</t>
-  </si>
-  <si>
-    <t>Laptop issue</t>
-  </si>
-  <si>
-    <t>PROD TK WH</t>
-  </si>
-  <si>
-    <t>PRO-ELT-0001-03</t>
-  </si>
-  <si>
-    <t>TK</t>
-  </si>
-  <si>
-    <t>PROD</t>
-  </si>
-  <si>
-    <t>AISAD</t>
   </si>
 </sst>
 </file>
@@ -432,151 +399,75 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45974</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2">
-        <v>10.123456789</v>
-      </c>
-      <c r="K2">
-        <v>12.0000000001</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45974</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3">
-        <v>10.123456789</v>
-      </c>
-      <c r="K3">
-        <v>12.0000000001</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>19</v>
-      </c>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
